--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf9-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf9-Bmpr1a.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3517556666666666</v>
+        <v>2.11624</v>
       </c>
       <c r="H2">
-        <v>1.055267</v>
+        <v>6.34872</v>
       </c>
       <c r="I2">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="J2">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.722665</v>
+        <v>6.322177333333333</v>
       </c>
       <c r="N2">
-        <v>17.167995</v>
+        <v>18.966532</v>
       </c>
       <c r="O2">
-        <v>0.09021166427595352</v>
+        <v>0.08271011762055308</v>
       </c>
       <c r="P2">
-        <v>0.09021166427595353</v>
+        <v>0.08271011762055309</v>
       </c>
       <c r="Q2">
-        <v>2.012979842185</v>
+        <v>13.37924455989333</v>
       </c>
       <c r="R2">
-        <v>18.116818579665</v>
+        <v>120.41320103904</v>
       </c>
       <c r="S2">
-        <v>0.003853678316300147</v>
+        <v>0.0156950286336024</v>
       </c>
       <c r="T2">
-        <v>0.003853678316300148</v>
+        <v>0.0156950286336024</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3517556666666666</v>
+        <v>2.11624</v>
       </c>
       <c r="H3">
-        <v>1.055267</v>
+        <v>6.34872</v>
       </c>
       <c r="I3">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="J3">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>123.860985</v>
       </c>
       <c r="O3">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560596</v>
       </c>
       <c r="P3">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560597</v>
       </c>
       <c r="Q3">
-        <v>14.52293445088833</v>
+        <v>87.3731902988</v>
       </c>
       <c r="R3">
-        <v>130.706410057995</v>
+        <v>786.3587126892</v>
       </c>
       <c r="S3">
-        <v>0.02780292003405627</v>
+        <v>0.1024964240252882</v>
       </c>
       <c r="T3">
-        <v>0.02780292003405627</v>
+        <v>0.1024964240252882</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3517556666666666</v>
+        <v>2.11624</v>
       </c>
       <c r="H4">
-        <v>1.055267</v>
+        <v>6.34872</v>
       </c>
       <c r="I4">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="J4">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.36419166666667</v>
+        <v>27.73243066666667</v>
       </c>
       <c r="N4">
-        <v>49.092575</v>
+        <v>83.197292</v>
       </c>
       <c r="O4">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="P4">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="Q4">
-        <v>5.756197149169444</v>
+        <v>58.68847907402667</v>
       </c>
       <c r="R4">
-        <v>51.80577434252499</v>
+        <v>528.19631166624</v>
       </c>
       <c r="S4">
-        <v>0.011019748769081</v>
+        <v>0.06884673909696196</v>
       </c>
       <c r="T4">
-        <v>0.011019748769081</v>
+        <v>0.06884673909696196</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3517556666666666</v>
+        <v>2.11624</v>
       </c>
       <c r="H5">
-        <v>1.055267</v>
+        <v>6.34872</v>
       </c>
       <c r="I5">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="J5">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06212466666666667</v>
+        <v>1.096171666666667</v>
       </c>
       <c r="N5">
-        <v>0.186374</v>
+        <v>3.288515</v>
       </c>
       <c r="O5">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="P5">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="Q5">
-        <v>0.02185270353977778</v>
+        <v>2.319762327866667</v>
       </c>
       <c r="R5">
-        <v>0.196674331858</v>
+        <v>20.8778609508</v>
       </c>
       <c r="S5">
-        <v>4.183513814642442E-05</v>
+        <v>0.002721284897367162</v>
       </c>
       <c r="T5">
-        <v>4.183513814642442E-05</v>
+        <v>0.002721284897367163</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>20.610225</v>
       </c>
       <c r="I6">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="J6">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.722665</v>
+        <v>6.322177333333333</v>
       </c>
       <c r="N6">
-        <v>17.167995</v>
+        <v>18.966532</v>
       </c>
       <c r="O6">
-        <v>0.09021166427595352</v>
+        <v>0.08271011762055308</v>
       </c>
       <c r="P6">
-        <v>0.09021166427595353</v>
+        <v>0.08271011762055309</v>
       </c>
       <c r="Q6">
-        <v>39.315137749875</v>
+        <v>43.4338324433</v>
       </c>
       <c r="R6">
-        <v>353.836239748875</v>
+        <v>390.9044919897</v>
       </c>
       <c r="S6">
-        <v>0.07526547989898974</v>
+        <v>0.05095169916455412</v>
       </c>
       <c r="T6">
-        <v>0.07526547989898975</v>
+        <v>0.05095169916455413</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>20.610225</v>
       </c>
       <c r="I7">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="J7">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>123.860985</v>
       </c>
       <c r="O7">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560596</v>
       </c>
       <c r="P7">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560597</v>
       </c>
       <c r="Q7">
         <v>283.644752174625</v>
@@ -883,10 +883,10 @@
         <v>2552.802769571625</v>
       </c>
       <c r="S7">
-        <v>0.5430136994323781</v>
+        <v>0.3327401997342134</v>
       </c>
       <c r="T7">
-        <v>0.5430136994323781</v>
+        <v>0.3327401997342135</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>20.610225</v>
       </c>
       <c r="I8">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="J8">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.36419166666667</v>
+        <v>27.73243066666667</v>
       </c>
       <c r="N8">
-        <v>49.092575</v>
+        <v>83.197292</v>
       </c>
       <c r="O8">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="P8">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="Q8">
-        <v>112.423224064375</v>
+        <v>190.5238786123</v>
       </c>
       <c r="R8">
-        <v>1011.809016579375</v>
+        <v>1714.7149075107</v>
       </c>
       <c r="S8">
-        <v>0.2152246792273732</v>
+        <v>0.2235012385653616</v>
       </c>
       <c r="T8">
-        <v>0.2152246792273732</v>
+        <v>0.2235012385653616</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>20.610225</v>
       </c>
       <c r="I9">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="J9">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.06212466666666667</v>
+        <v>1.096171666666667</v>
       </c>
       <c r="N9">
-        <v>0.186374</v>
+        <v>3.288515</v>
       </c>
       <c r="O9">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="P9">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="Q9">
-        <v>0.42680111935</v>
+        <v>7.530781562875001</v>
       </c>
       <c r="R9">
-        <v>3.84121007415</v>
+        <v>67.777034065875</v>
       </c>
       <c r="S9">
-        <v>0.0008170743613738421</v>
+        <v>0.008834268013684511</v>
       </c>
       <c r="T9">
-        <v>0.0008170743613738421</v>
+        <v>0.008834268013684511</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2767293333333333</v>
+        <v>1.793503666666667</v>
       </c>
       <c r="H10">
-        <v>0.8301879999999999</v>
+        <v>5.380511</v>
       </c>
       <c r="I10">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="J10">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.722665</v>
+        <v>6.322177333333333</v>
       </c>
       <c r="N10">
-        <v>17.167995</v>
+        <v>18.966532</v>
       </c>
       <c r="O10">
-        <v>0.09021166427595352</v>
+        <v>0.08271011762055308</v>
       </c>
       <c r="P10">
-        <v>0.09021166427595353</v>
+        <v>0.08271011762055309</v>
       </c>
       <c r="Q10">
-        <v>1.58362927034</v>
+        <v>11.33884822865022</v>
       </c>
       <c r="R10">
-        <v>14.25266343306</v>
+        <v>102.049634057852</v>
       </c>
       <c r="S10">
-        <v>0.003031723245446496</v>
+        <v>0.01330146458001183</v>
       </c>
       <c r="T10">
-        <v>0.003031723245446495</v>
+        <v>0.01330146458001183</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2767293333333333</v>
+        <v>1.793503666666667</v>
       </c>
       <c r="H11">
-        <v>0.8301879999999999</v>
+        <v>5.380511</v>
       </c>
       <c r="I11">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="J11">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>123.860985</v>
       </c>
       <c r="O11">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560596</v>
       </c>
       <c r="P11">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560597</v>
       </c>
       <c r="Q11">
-        <v>11.42532260168667</v>
+        <v>74.04837691814834</v>
       </c>
       <c r="R11">
-        <v>102.82790341518</v>
+        <v>666.4353922633351</v>
       </c>
       <c r="S11">
-        <v>0.02187280619713599</v>
+        <v>0.0868652479442671</v>
       </c>
       <c r="T11">
-        <v>0.02187280619713599</v>
+        <v>0.08686524794426712</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2767293333333333</v>
+        <v>1.793503666666667</v>
       </c>
       <c r="H12">
-        <v>0.8301879999999999</v>
+        <v>5.380511</v>
       </c>
       <c r="I12">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="J12">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.36419166666667</v>
+        <v>27.73243066666667</v>
       </c>
       <c r="N12">
-        <v>49.092575</v>
+        <v>83.197292</v>
       </c>
       <c r="O12">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="P12">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="Q12">
-        <v>4.528451850455555</v>
+        <v>49.73821608624579</v>
       </c>
       <c r="R12">
-        <v>40.7560666541</v>
+        <v>447.643944776212</v>
       </c>
       <c r="S12">
-        <v>0.008669335050850461</v>
+        <v>0.05834729473426674</v>
       </c>
       <c r="T12">
-        <v>0.008669335050850459</v>
+        <v>0.05834729473426674</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2767293333333333</v>
+        <v>1.793503666666667</v>
       </c>
       <c r="H13">
-        <v>0.8301879999999999</v>
+        <v>5.380511</v>
       </c>
       <c r="I13">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="J13">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.06212466666666667</v>
+        <v>1.096171666666667</v>
       </c>
       <c r="N13">
-        <v>0.186374</v>
+        <v>3.288515</v>
       </c>
       <c r="O13">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="P13">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="Q13">
-        <v>0.01719171759022222</v>
+        <v>1.965987903462778</v>
       </c>
       <c r="R13">
-        <v>0.154725458312</v>
+        <v>17.693891131165</v>
       </c>
       <c r="S13">
-        <v>3.291207786039343E-05</v>
+        <v>0.002306276434370691</v>
       </c>
       <c r="T13">
-        <v>3.291207786039342E-05</v>
+        <v>0.002306276434370691</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.7357713333333334</v>
+        <v>0.3724043333333333</v>
       </c>
       <c r="H14">
-        <v>2.207314</v>
+        <v>1.117213</v>
       </c>
       <c r="I14">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="J14">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.722665</v>
+        <v>6.322177333333333</v>
       </c>
       <c r="N14">
-        <v>17.167995</v>
+        <v>18.966532</v>
       </c>
       <c r="O14">
-        <v>0.09021166427595352</v>
+        <v>0.08271011762055308</v>
       </c>
       <c r="P14">
-        <v>0.09021166427595353</v>
+        <v>0.08271011762055309</v>
       </c>
       <c r="Q14">
-        <v>4.210572857270001</v>
+        <v>2.354406235035111</v>
       </c>
       <c r="R14">
-        <v>37.89515571543001</v>
+        <v>21.189656115316</v>
       </c>
       <c r="S14">
-        <v>0.008060782815217139</v>
+        <v>0.002761925242384739</v>
       </c>
       <c r="T14">
-        <v>0.008060782815217141</v>
+        <v>0.00276192524238474</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.7357713333333334</v>
+        <v>0.3724043333333333</v>
       </c>
       <c r="H15">
-        <v>2.207314</v>
+        <v>1.117213</v>
       </c>
       <c r="I15">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="J15">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>123.860985</v>
       </c>
       <c r="O15">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560596</v>
       </c>
       <c r="P15">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560597</v>
       </c>
       <c r="Q15">
-        <v>30.37778736047667</v>
+        <v>15.37545584831167</v>
       </c>
       <c r="R15">
-        <v>273.40008624429</v>
+        <v>138.379102634805</v>
       </c>
       <c r="S15">
-        <v>0.05815568442114923</v>
+        <v>0.0180367597522909</v>
       </c>
       <c r="T15">
-        <v>0.05815568442114923</v>
+        <v>0.01803675975229091</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.7357713333333334</v>
+        <v>0.3724043333333333</v>
       </c>
       <c r="H16">
-        <v>2.207314</v>
+        <v>1.117213</v>
       </c>
       <c r="I16">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="J16">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.36419166666667</v>
+        <v>27.73243066666667</v>
       </c>
       <c r="N16">
-        <v>49.092575</v>
+        <v>83.197292</v>
       </c>
       <c r="O16">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="P16">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="Q16">
-        <v>12.04030312150556</v>
+        <v>10.32767735413289</v>
       </c>
       <c r="R16">
-        <v>108.36272809355</v>
+        <v>92.94909618719601</v>
       </c>
       <c r="S16">
-        <v>0.02305013397981293</v>
+        <v>0.01211527235832328</v>
       </c>
       <c r="T16">
-        <v>0.02305013397981293</v>
+        <v>0.01211527235832328</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.7357713333333334</v>
+        <v>0.3724043333333333</v>
       </c>
       <c r="H17">
-        <v>2.207314</v>
+        <v>1.117213</v>
       </c>
       <c r="I17">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="J17">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.06212466666666667</v>
+        <v>1.096171666666667</v>
       </c>
       <c r="N17">
-        <v>0.186374</v>
+        <v>3.288515</v>
       </c>
       <c r="O17">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="P17">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="Q17">
-        <v>0.04570954882622223</v>
+        <v>0.4082190787438889</v>
       </c>
       <c r="R17">
-        <v>0.411385939436</v>
+        <v>3.673971708695</v>
       </c>
       <c r="S17">
-        <v>8.750703482866107E-05</v>
+        <v>0.0004788768230513017</v>
       </c>
       <c r="T17">
-        <v>8.750703482866107E-05</v>
+        <v>0.0004788768230513017</v>
       </c>
     </row>
   </sheetData>
